--- a/Additions/Untappd_анализ.xlsx
+++ b/Additions/Untappd_анализ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewer\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867084DC-610E-45D5-9408-92391623EA14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C83377-D201-44B1-A72A-1D38BDB75B64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2445" windowWidth="25440" windowHeight="15390" xr2:uid="{E83B4F30-63EC-4E00-BE5B-265E87A3B885}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>штат пивоварни</t>
   </si>
   <si>
-    <t>профиль вкуса</t>
-  </si>
-  <si>
     <t>место покупки</t>
   </si>
   <si>
@@ -267,13 +264,29 @@
   </si>
   <si>
     <t>рейтинг чекина</t>
+  </si>
+  <si>
+    <r>
+      <t>профиль вкуса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (может быть через ,)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +306,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -442,6 +463,54 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -475,57 +544,6 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -602,6 +620,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -609,19 +636,13 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,23 +658,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F921B3C-2E6B-470B-B446-3A39E3BD7BF4}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F921B3C-2E6B-470B-B446-3A39E3BD7BF4}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:D28" xr:uid="{6CDD02B4-88A2-4C4E-B1AE-FEFA350ECE47}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{23D33726-856A-4CE0-8DA0-B841A35FEDB5}" name="№" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9AB5E2B2-BE57-4967-83C7-0A35138645B3}" name="параметр" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{96D08820-A3C8-4623-9163-16BFE364F410}" name="значение" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{17D174C4-A4F2-4EBB-A4C8-7F5C225E8BEE}" name="примечание" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{23D33726-856A-4CE0-8DA0-B841A35FEDB5}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9AB5E2B2-BE57-4967-83C7-0A35138645B3}" name="параметр" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{96D08820-A3C8-4623-9163-16BFE364F410}" name="значение" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{17D174C4-A4F2-4EBB-A4C8-7F5C225E8BEE}" name="примечание" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00D4E716-AD28-4B04-AC76-1399AEE0D0CE}" name="Table4" displayName="Table4" ref="E1:E28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00D4E716-AD28-4B04-AC76-1399AEE0D0CE}" name="Table4" displayName="Table4" ref="E1:E28" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="E1:E28" xr:uid="{239B8E83-71EA-4EDE-9E2A-3C217A5D0840}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8A308780-C95D-4456-A2DB-487DD32B9E42}" name="Class" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8A308780-C95D-4456-A2DB-487DD32B9E42}" name="Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,7 +980,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +1006,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,7 +1023,7 @@
         <v>51</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1040,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,7 +1074,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,7 +1091,7 @@
         <v>52</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,7 +1108,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,7 +1123,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1117,7 +1138,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1132,7 +1153,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,7 +1168,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,7 +1181,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="8"/>
       <c r="E12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1173,7 +1194,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="8"/>
       <c r="E13" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,10 +1208,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1228,7 @@
         <v>59</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1224,7 +1245,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1262,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1258,7 +1279,7 @@
         <v>62</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,7 +1296,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,7 +1313,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,7 +1330,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,10 +1342,10 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,10 +1357,10 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,10 +1374,10 @@
         <v>36</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1370,10 +1391,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,10 +1408,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,10 +1425,10 @@
         <v>42</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1421,10 +1442,10 @@
         <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Additions/Untappd_анализ.xlsx
+++ b/Additions/Untappd_анализ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\Test\Untappd\UntappdViewer\Additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C83377-D201-44B1-A72A-1D38BDB75B64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85EB121-E9FC-47B9-9571-4831E076D63E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="2445" windowWidth="25440" windowHeight="15390" xr2:uid="{E83B4F30-63EC-4E00-BE5B-265E87A3B885}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>beer_name</t>
   </si>
@@ -280,6 +280,52 @@
       </rPr>
       <t xml:space="preserve"> (может быть через ,)</t>
     </r>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>global_rating_score</t>
+  </si>
+  <si>
+    <t>global_weighted_rating_score</t>
+  </si>
+  <si>
+    <t>tagged_friends</t>
+  </si>
+  <si>
+    <t>total_toasts</t>
+  </si>
+  <si>
+    <t>total_comments</t>
+  </si>
+  <si>
+    <t>взвешенный рейтинг пива</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">отмеченные друзья </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>????</t>
+    </r>
+  </si>
+  <si>
+    <t>количесво лайков</t>
+  </si>
+  <si>
+    <t>количесво коментариев</t>
+  </si>
+  <si>
+    <t>реитинг пива</t>
   </si>
 </sst>
 </file>
@@ -334,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -427,12 +473,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -456,6 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,8 +716,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F921B3C-2E6B-470B-B446-3A39E3BD7BF4}" name="Table1" displayName="Table1" ref="A1:D28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:D28" xr:uid="{6CDD02B4-88A2-4C4E-B1AE-FEFA350ECE47}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F921B3C-2E6B-470B-B446-3A39E3BD7BF4}" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:D34" xr:uid="{6CDD02B4-88A2-4C4E-B1AE-FEFA350ECE47}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{23D33726-856A-4CE0-8DA0-B841A35FEDB5}" name="№" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{9AB5E2B2-BE57-4967-83C7-0A35138645B3}" name="параметр" dataDxfId="7"/>
@@ -977,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDB0FF-FB59-4A3B-87D3-BDD85F167AC0}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1502,91 @@
       <c r="D28" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
     </row>
